--- a/data/pca/factorExposure/factorExposure_2018-07-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02638778714073771</v>
+        <v>-0.02251408600901518</v>
       </c>
       <c r="C2">
-        <v>-0.02468136368708884</v>
+        <v>-0.01847957649062006</v>
       </c>
       <c r="D2">
-        <v>-0.02809338454223421</v>
+        <v>-0.01890789346603303</v>
       </c>
       <c r="E2">
-        <v>-0.003419700164322092</v>
+        <v>-0.0161559542465214</v>
       </c>
       <c r="F2">
-        <v>-0.1136222805245458</v>
+        <v>0.00382193211169216</v>
       </c>
       <c r="G2">
-        <v>-0.04864649777395487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05109328776357967</v>
+      </c>
+      <c r="H2">
+        <v>0.04889113642893315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1068312831482522</v>
+        <v>-0.08211057257366465</v>
       </c>
       <c r="C3">
-        <v>0.03624403366640319</v>
+        <v>0.01266224989809734</v>
       </c>
       <c r="D3">
-        <v>-0.08304213412684504</v>
+        <v>-0.02380483783604277</v>
       </c>
       <c r="E3">
-        <v>-0.002365382369492776</v>
+        <v>-0.01263689783464778</v>
       </c>
       <c r="F3">
-        <v>-0.3948616624960898</v>
+        <v>-0.04535322920853515</v>
       </c>
       <c r="G3">
-        <v>-0.1707909917140071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1779749406068755</v>
+      </c>
+      <c r="H3">
+        <v>0.156781436520476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04844666486991105</v>
+        <v>-0.04597145278899016</v>
       </c>
       <c r="C4">
-        <v>-0.02619400000529232</v>
+        <v>-0.004339630737665169</v>
       </c>
       <c r="D4">
-        <v>0.01421540624076308</v>
+        <v>-0.04269155832196298</v>
       </c>
       <c r="E4">
-        <v>0.05275831315556602</v>
+        <v>0.02218965821445531</v>
       </c>
       <c r="F4">
-        <v>-0.08621732210987636</v>
+        <v>0.04701466326513143</v>
       </c>
       <c r="G4">
-        <v>-0.05388299897073791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04227186378281923</v>
+      </c>
+      <c r="H4">
+        <v>0.05697745098704896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01550147634669543</v>
+        <v>-0.02544692695015352</v>
       </c>
       <c r="C6">
-        <v>-0.009136297177311509</v>
+        <v>-0.004133502997723599</v>
       </c>
       <c r="D6">
-        <v>-0.01713703088224138</v>
+        <v>-0.05123417584107221</v>
       </c>
       <c r="E6">
-        <v>0.02275050516221162</v>
+        <v>0.008417489220543034</v>
       </c>
       <c r="F6">
-        <v>-0.01308904289049909</v>
+        <v>0.02961924950245176</v>
       </c>
       <c r="G6">
-        <v>-0.002031511944185861</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01533702820555589</v>
+      </c>
+      <c r="H6">
+        <v>0.06175259805927074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02232903236693735</v>
+        <v>-0.02155908191734487</v>
       </c>
       <c r="C7">
-        <v>-0.001949479300999402</v>
+        <v>-0.003177694416801856</v>
       </c>
       <c r="D7">
-        <v>-0.01585572394208534</v>
+        <v>-0.0256044348417183</v>
       </c>
       <c r="E7">
-        <v>0.03027547932370921</v>
+        <v>0.04179270640447323</v>
       </c>
       <c r="F7">
-        <v>-0.05637170631031822</v>
+        <v>0.001922433122040895</v>
       </c>
       <c r="G7">
-        <v>-0.06710934106947154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02403408902351213</v>
+      </c>
+      <c r="H7">
+        <v>0.03754379286626492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02102092291419585</v>
+        <v>-0.006467455824908835</v>
       </c>
       <c r="C8">
-        <v>-0.01643022980790056</v>
+        <v>0.001783898093758722</v>
       </c>
       <c r="D8">
-        <v>-0.007227917840422334</v>
+        <v>-0.0111879039390185</v>
       </c>
       <c r="E8">
-        <v>0.0456716039075927</v>
+        <v>0.007079205602180548</v>
       </c>
       <c r="F8">
-        <v>-0.09927023122038238</v>
+        <v>0.0157821341666778</v>
       </c>
       <c r="G8">
-        <v>-0.05333339977650982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04610356615595659</v>
+      </c>
+      <c r="H8">
+        <v>0.04261490058356091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03857972401929927</v>
+        <v>-0.03672682178733996</v>
       </c>
       <c r="C9">
-        <v>-0.02432511165457086</v>
+        <v>-0.0005254647349027089</v>
       </c>
       <c r="D9">
-        <v>0.004240344009756022</v>
+        <v>-0.03366507751693578</v>
       </c>
       <c r="E9">
-        <v>0.04721606303231273</v>
+        <v>0.01171910116177332</v>
       </c>
       <c r="F9">
-        <v>-0.08663067923602043</v>
+        <v>0.02424702308504993</v>
       </c>
       <c r="G9">
-        <v>-0.05673288520921119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05038041809036287</v>
+      </c>
+      <c r="H9">
+        <v>0.05373800371291584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0256165276770362</v>
+        <v>-0.1007423915745929</v>
       </c>
       <c r="C10">
-        <v>0.04519149539834338</v>
+        <v>0.02871828160190137</v>
       </c>
       <c r="D10">
-        <v>0.07946644093241108</v>
+        <v>0.1535816699587214</v>
       </c>
       <c r="E10">
-        <v>-0.1048067325656891</v>
+        <v>-0.01035793658773641</v>
       </c>
       <c r="F10">
-        <v>-0.04716946297895753</v>
+        <v>-0.04589669532993186</v>
       </c>
       <c r="G10">
-        <v>0.02481873319915689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02079769445260993</v>
+      </c>
+      <c r="H10">
+        <v>0.004677861153533826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03694646218811259</v>
+        <v>-0.02123129664016856</v>
       </c>
       <c r="C11">
-        <v>-0.01564753097157852</v>
+        <v>0.008204108502385196</v>
       </c>
       <c r="D11">
-        <v>-0.01649925539847188</v>
+        <v>-0.0386299161214691</v>
       </c>
       <c r="E11">
-        <v>0.03131985561787671</v>
+        <v>-0.000720396089654669</v>
       </c>
       <c r="F11">
-        <v>-0.04443197412549188</v>
+        <v>0.009274785246655259</v>
       </c>
       <c r="G11">
-        <v>-0.02860070778713818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02677958571873921</v>
+      </c>
+      <c r="H11">
+        <v>0.0440012195100993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04405991615279421</v>
+        <v>-0.03020242441654483</v>
       </c>
       <c r="C12">
-        <v>-0.01574885570384324</v>
+        <v>0.006628102394851721</v>
       </c>
       <c r="D12">
-        <v>-0.009254669472470802</v>
+        <v>-0.03979793626027037</v>
       </c>
       <c r="E12">
-        <v>0.03851713361748208</v>
+        <v>0.00917668430080313</v>
       </c>
       <c r="F12">
-        <v>-0.0323546389857021</v>
+        <v>0.01618594969654856</v>
       </c>
       <c r="G12">
-        <v>-0.01867688479254912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01193088578634975</v>
+      </c>
+      <c r="H12">
+        <v>0.02433943437996586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01646344379547007</v>
+        <v>-0.02573144630505211</v>
       </c>
       <c r="C13">
-        <v>-0.02133868609046714</v>
+        <v>-0.01450532985382098</v>
       </c>
       <c r="D13">
-        <v>-0.01439452994819692</v>
+        <v>0.004176434406113995</v>
       </c>
       <c r="E13">
-        <v>-0.001775765391017444</v>
+        <v>-0.01311611677704553</v>
       </c>
       <c r="F13">
-        <v>-0.07861811549820454</v>
+        <v>0.006846472263059323</v>
       </c>
       <c r="G13">
-        <v>-0.04241694704772789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05553020930346821</v>
+      </c>
+      <c r="H13">
+        <v>0.05614728155309518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01489214737667243</v>
+        <v>-0.01701136170464066</v>
       </c>
       <c r="C14">
-        <v>-0.01105984288364674</v>
+        <v>-0.0006396460172908197</v>
       </c>
       <c r="D14">
-        <v>0.004648714953208907</v>
+        <v>-0.004241452562289231</v>
       </c>
       <c r="E14">
-        <v>0.04015142245774322</v>
+        <v>0.01334953300972511</v>
       </c>
       <c r="F14">
-        <v>-0.05146392850180143</v>
+        <v>0.01212975650574039</v>
       </c>
       <c r="G14">
-        <v>-0.06726936749198004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04279629465043257</v>
+      </c>
+      <c r="H14">
+        <v>0.002229403523993004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02796413198233545</v>
+        <v>-0.02237781510001777</v>
       </c>
       <c r="C16">
-        <v>-0.01936621192684539</v>
+        <v>0.008731764886149122</v>
       </c>
       <c r="D16">
-        <v>-0.01704342558433202</v>
+        <v>-0.03507785009915197</v>
       </c>
       <c r="E16">
-        <v>0.02438235180445928</v>
+        <v>0.002999003904121435</v>
       </c>
       <c r="F16">
-        <v>-0.05112978493048238</v>
+        <v>0.01574180104699159</v>
       </c>
       <c r="G16">
-        <v>-0.03115397931894969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02461057045057223</v>
+      </c>
+      <c r="H16">
+        <v>0.03763456733803005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04895925218984574</v>
+        <v>-0.0350919774164317</v>
       </c>
       <c r="C19">
-        <v>-0.01872311357702645</v>
+        <v>1.204171917854217e-05</v>
       </c>
       <c r="D19">
-        <v>-0.01661524187312645</v>
+        <v>-0.0198068938619927</v>
       </c>
       <c r="E19">
-        <v>0.04114353092181773</v>
+        <v>0.004857658421945299</v>
       </c>
       <c r="F19">
-        <v>-0.09656445937295953</v>
+        <v>0.01640668509448091</v>
       </c>
       <c r="G19">
-        <v>-0.03531108172767327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0559162126489794</v>
+      </c>
+      <c r="H19">
+        <v>0.0726131676161386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.00130540774977591</v>
+        <v>-0.009516299149389775</v>
       </c>
       <c r="C20">
-        <v>-0.01410923989648218</v>
+        <v>-0.006621279001519169</v>
       </c>
       <c r="D20">
-        <v>0.001827574692387588</v>
+        <v>-0.007407134178873053</v>
       </c>
       <c r="E20">
-        <v>0.03398795659876492</v>
+        <v>0.003822962751219837</v>
       </c>
       <c r="F20">
-        <v>-0.07224598934338103</v>
+        <v>0.01016097485829705</v>
       </c>
       <c r="G20">
-        <v>-0.07390748959814278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04881897065140527</v>
+      </c>
+      <c r="H20">
+        <v>0.01305505417479595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001955208609649659</v>
+        <v>-0.01623594059067366</v>
       </c>
       <c r="C21">
-        <v>0.00717850157026773</v>
+        <v>-0.007848384967573863</v>
       </c>
       <c r="D21">
-        <v>-0.01110567328667223</v>
+        <v>-0.008771230387776224</v>
       </c>
       <c r="E21">
-        <v>0.03163576499913719</v>
+        <v>0.01600094546066612</v>
       </c>
       <c r="F21">
-        <v>-0.05370359969768507</v>
+        <v>0.002537460761389587</v>
       </c>
       <c r="G21">
-        <v>-0.03102613383980141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05051191323126986</v>
+      </c>
+      <c r="H21">
+        <v>0.03142151027544273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03206106546229791</v>
+        <v>-0.02006339594178275</v>
       </c>
       <c r="C24">
-        <v>-0.02054780071817628</v>
+        <v>0.003030105976675543</v>
       </c>
       <c r="D24">
-        <v>-0.008609538597063924</v>
+        <v>-0.03446777065915705</v>
       </c>
       <c r="E24">
-        <v>0.00892762669439616</v>
+        <v>0.0003299043824192659</v>
       </c>
       <c r="F24">
-        <v>-0.04326613015440505</v>
+        <v>0.009898488633384347</v>
       </c>
       <c r="G24">
-        <v>-0.02552239593510568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02094140226378721</v>
+      </c>
+      <c r="H24">
+        <v>0.04071188896230239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03139846064304309</v>
+        <v>-0.02975918643459694</v>
       </c>
       <c r="C25">
-        <v>-0.01188203237884586</v>
+        <v>0.0009629036539164292</v>
       </c>
       <c r="D25">
-        <v>-0.01687446482084172</v>
+        <v>-0.03381399057142375</v>
       </c>
       <c r="E25">
-        <v>0.0363619917095229</v>
+        <v>0.004514546826008929</v>
       </c>
       <c r="F25">
-        <v>-0.04364673497988671</v>
+        <v>0.01538823054404726</v>
       </c>
       <c r="G25">
-        <v>-0.01002656390467278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02481959569159166</v>
+      </c>
+      <c r="H25">
+        <v>0.04414058690585474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02178397421390118</v>
+        <v>-0.02076012123540351</v>
       </c>
       <c r="C26">
-        <v>-0.004367772697565856</v>
+        <v>-0.01711645168694474</v>
       </c>
       <c r="D26">
-        <v>-0.03043748471321273</v>
+        <v>-0.001642248060807078</v>
       </c>
       <c r="E26">
-        <v>0.01939640839400164</v>
+        <v>-0.001117443926422479</v>
       </c>
       <c r="F26">
-        <v>-0.06343775976864578</v>
+        <v>-0.001030791034878806</v>
       </c>
       <c r="G26">
-        <v>-0.03760585576620362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03182861115497447</v>
+      </c>
+      <c r="H26">
+        <v>0.02009814592189983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06354219228860571</v>
+        <v>-0.02497128656700792</v>
       </c>
       <c r="C27">
-        <v>-0.03026948633020242</v>
+        <v>0.009596110640737491</v>
       </c>
       <c r="D27">
-        <v>0.0278195660450433</v>
+        <v>-0.01510267898042779</v>
       </c>
       <c r="E27">
-        <v>0.03595300787178844</v>
+        <v>0.007696365070813404</v>
       </c>
       <c r="F27">
-        <v>-0.05426262762306931</v>
+        <v>0.01713780256808572</v>
       </c>
       <c r="G27">
-        <v>-0.04469107830630707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01951049380077008</v>
+      </c>
+      <c r="H27">
+        <v>0.003918527838365284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04036483049279319</v>
+        <v>-0.1499657601039767</v>
       </c>
       <c r="C28">
-        <v>0.05169160891168697</v>
+        <v>0.02933593417404516</v>
       </c>
       <c r="D28">
-        <v>0.1115363986268962</v>
+        <v>0.2227394127216439</v>
       </c>
       <c r="E28">
-        <v>-0.1467497413358251</v>
+        <v>-0.008216000520441609</v>
       </c>
       <c r="F28">
-        <v>-0.0458908226134874</v>
+        <v>-0.05208261091361301</v>
       </c>
       <c r="G28">
-        <v>0.01131480896153547</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.006948271530612707</v>
+      </c>
+      <c r="H28">
+        <v>-0.0138089520371924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02273545936642075</v>
+        <v>-0.02228542942615053</v>
       </c>
       <c r="C29">
-        <v>-0.01297805913073942</v>
+        <v>0.001622246349722419</v>
       </c>
       <c r="D29">
-        <v>0.007619318752419749</v>
+        <v>-0.005483619440304272</v>
       </c>
       <c r="E29">
-        <v>0.05420791423671292</v>
+        <v>0.01342642112722151</v>
       </c>
       <c r="F29">
-        <v>-0.04308410743500368</v>
+        <v>0.01535431937296947</v>
       </c>
       <c r="G29">
-        <v>-0.05830728020535961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04061823847544514</v>
+      </c>
+      <c r="H29">
+        <v>-0.001413142450007805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09288994429441125</v>
+        <v>-0.05131685547484377</v>
       </c>
       <c r="C30">
-        <v>-0.06269980480913151</v>
+        <v>-0.00490083699647584</v>
       </c>
       <c r="D30">
-        <v>-0.01604038359769306</v>
+        <v>-0.06951816528297755</v>
       </c>
       <c r="E30">
-        <v>0.06951259313633786</v>
+        <v>-0.02917362126797065</v>
       </c>
       <c r="F30">
-        <v>-0.08536245523517351</v>
+        <v>0.05032433215622878</v>
       </c>
       <c r="G30">
-        <v>-0.06590002977828884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0573152014324601</v>
+      </c>
+      <c r="H30">
+        <v>0.06287150960692973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06381025271183394</v>
+        <v>-0.05525514580381889</v>
       </c>
       <c r="C31">
-        <v>-0.02617909717567068</v>
+        <v>0.01480399993648774</v>
       </c>
       <c r="D31">
-        <v>-0.02618378354875211</v>
+        <v>-0.0266627945976761</v>
       </c>
       <c r="E31">
-        <v>0.005529456694438802</v>
+        <v>-0.004286357856380686</v>
       </c>
       <c r="F31">
-        <v>-0.04224451506466977</v>
+        <v>0.01299161451043405</v>
       </c>
       <c r="G31">
-        <v>-0.06428843561120884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01830034787472173</v>
+      </c>
+      <c r="H31">
+        <v>0.01154264157894202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02103885730907112</v>
+        <v>-0.01126127796420585</v>
       </c>
       <c r="C32">
-        <v>-0.01958423757042245</v>
+        <v>0.0134857754178935</v>
       </c>
       <c r="D32">
-        <v>-0.009495552800442777</v>
+        <v>-0.0005960342700298656</v>
       </c>
       <c r="E32">
-        <v>0.08102898255746607</v>
+        <v>0.03078273853899622</v>
       </c>
       <c r="F32">
-        <v>-0.06236287628540576</v>
+        <v>0.0319714024348999</v>
       </c>
       <c r="G32">
-        <v>-0.04731172703442334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0338162550717339</v>
+      </c>
+      <c r="H32">
+        <v>0.05911177146887085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05127245716238953</v>
+        <v>-0.03893183308744096</v>
       </c>
       <c r="C33">
-        <v>-0.01315010071175428</v>
+        <v>0.001154508606802764</v>
       </c>
       <c r="D33">
-        <v>-0.04764741408541626</v>
+        <v>-0.03333627040612223</v>
       </c>
       <c r="E33">
-        <v>0.04214347449355649</v>
+        <v>-0.02335304197826879</v>
       </c>
       <c r="F33">
-        <v>-0.08625870056710844</v>
+        <v>0.00161166148067474</v>
       </c>
       <c r="G33">
-        <v>-0.06316424337404039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0474881031577207</v>
+      </c>
+      <c r="H33">
+        <v>0.04099152142027791</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03485966001165282</v>
+        <v>-0.02700157552954731</v>
       </c>
       <c r="C34">
-        <v>-0.02221797954632913</v>
+        <v>0.01722087375841886</v>
       </c>
       <c r="D34">
-        <v>-0.01186420089844954</v>
+        <v>-0.03553767789840006</v>
       </c>
       <c r="E34">
-        <v>0.03281620630942738</v>
+        <v>0.009553937789167246</v>
       </c>
       <c r="F34">
-        <v>-0.05885776420659796</v>
+        <v>0.0174317837081499</v>
       </c>
       <c r="G34">
-        <v>-0.01635065806852899</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02318434795177029</v>
+      </c>
+      <c r="H34">
+        <v>0.03790079019932498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01670762156632151</v>
+        <v>-0.02157138555066387</v>
       </c>
       <c r="C36">
-        <v>-0.006202701739272704</v>
+        <v>-0.003690717572409592</v>
       </c>
       <c r="D36">
-        <v>0.002364472250972043</v>
+        <v>6.707545349130778e-05</v>
       </c>
       <c r="E36">
-        <v>0.03026913032535427</v>
+        <v>0.006668551527686856</v>
       </c>
       <c r="F36">
-        <v>-0.0323269212598687</v>
+        <v>0.004028740550383633</v>
       </c>
       <c r="G36">
-        <v>-0.03820188146810961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01912334826545377</v>
+      </c>
+      <c r="H36">
+        <v>0.007739209178024368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0001988364952603398</v>
+        <v>-0.02298554175158657</v>
       </c>
       <c r="C38">
-        <v>0.01307864565912502</v>
+        <v>0.01612169970370387</v>
       </c>
       <c r="D38">
-        <v>-0.01412550561109082</v>
+        <v>-0.005321711199400925</v>
       </c>
       <c r="E38">
-        <v>-0.0155553553056033</v>
+        <v>-0.001220525318159584</v>
       </c>
       <c r="F38">
-        <v>-0.04643841003698664</v>
+        <v>0.005525414398116516</v>
       </c>
       <c r="G38">
-        <v>-0.0023260661057695</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01969362098288588</v>
+      </c>
+      <c r="H38">
+        <v>0.04040277981676309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04272987814285089</v>
+        <v>-0.01847606629251817</v>
       </c>
       <c r="C39">
-        <v>-0.03852135662382068</v>
+        <v>0.000884653579568153</v>
       </c>
       <c r="D39">
-        <v>-0.02564615138004882</v>
+        <v>-0.07550989792118787</v>
       </c>
       <c r="E39">
-        <v>0.03617115901910949</v>
+        <v>-0.00159235426022054</v>
       </c>
       <c r="F39">
-        <v>-0.06502472547181247</v>
+        <v>0.02075699270396604</v>
       </c>
       <c r="G39">
-        <v>-0.03071578199455437</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04387888938238755</v>
+      </c>
+      <c r="H39">
+        <v>0.06993572090597655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03880204318415072</v>
+        <v>-0.03192994731325083</v>
       </c>
       <c r="C40">
-        <v>-0.06272809215231377</v>
+        <v>0.000940441751061072</v>
       </c>
       <c r="D40">
-        <v>-0.03587650037268839</v>
+        <v>-0.01881118792353972</v>
       </c>
       <c r="E40">
-        <v>-0.01139856075401728</v>
+        <v>-0.02457861172327136</v>
       </c>
       <c r="F40">
-        <v>-0.07732653229741254</v>
+        <v>0.02663983996578498</v>
       </c>
       <c r="G40">
-        <v>-0.05517724849054732</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02676462211873457</v>
+      </c>
+      <c r="H40">
+        <v>0.06555773193804704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-7.103311338249176e-05</v>
+        <v>-0.01157918874170086</v>
       </c>
       <c r="C41">
-        <v>0.001604590434705258</v>
+        <v>-0.0003004956509536343</v>
       </c>
       <c r="D41">
-        <v>-0.006488163933015227</v>
+        <v>0.01210087633097767</v>
       </c>
       <c r="E41">
-        <v>0.009677563228462938</v>
+        <v>-0.001796989587955217</v>
       </c>
       <c r="F41">
-        <v>-0.00114915231667599</v>
+        <v>-0.001628890506026381</v>
       </c>
       <c r="G41">
-        <v>-0.05000254432753742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.002566675713749909</v>
+      </c>
+      <c r="H41">
+        <v>-0.006218228151093903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3611365227550833</v>
+        <v>-0.1968573425871998</v>
       </c>
       <c r="C42">
-        <v>0.6662004886206339</v>
+        <v>-0.07634188572025968</v>
       </c>
       <c r="D42">
-        <v>-0.5418846571302974</v>
+        <v>-0.3645005802164241</v>
       </c>
       <c r="E42">
-        <v>-0.1479148384104154</v>
+        <v>-0.2226126687510467</v>
       </c>
       <c r="F42">
-        <v>0.2580765086423839</v>
+        <v>-0.8424560692946539</v>
       </c>
       <c r="G42">
-        <v>-0.08033067652583009</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2049948028945919</v>
+      </c>
+      <c r="H42">
+        <v>-0.05046964687866135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007584525194637769</v>
+        <v>-0.01166876992503972</v>
       </c>
       <c r="C43">
-        <v>0.007047247195519984</v>
+        <v>-0.001615203188716212</v>
       </c>
       <c r="D43">
-        <v>-0.01614870524464992</v>
+        <v>0.01357855341837895</v>
       </c>
       <c r="E43">
-        <v>0.01161176455727719</v>
+        <v>-0.006075224042068058</v>
       </c>
       <c r="F43">
-        <v>-0.01630566160978796</v>
+        <v>-0.009088364921717362</v>
       </c>
       <c r="G43">
-        <v>-0.04760066188800074</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.004589120955703009</v>
+      </c>
+      <c r="H43">
+        <v>0.0007966953690778771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01791146322576688</v>
+        <v>-0.0137567101673752</v>
       </c>
       <c r="C44">
-        <v>0.003447071444903335</v>
+        <v>0.001185694349304064</v>
       </c>
       <c r="D44">
-        <v>-0.02074174061111397</v>
+        <v>-0.02392722151000983</v>
       </c>
       <c r="E44">
-        <v>0.0251095205256777</v>
+        <v>0.005252375020464744</v>
       </c>
       <c r="F44">
-        <v>-0.1111603168151051</v>
+        <v>-0.006513427477618213</v>
       </c>
       <c r="G44">
-        <v>-0.07873368506784148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03902062075179307</v>
+      </c>
+      <c r="H44">
+        <v>0.05716366887144437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01974675634129644</v>
+        <v>-0.01839625536573656</v>
       </c>
       <c r="C46">
-        <v>-0.01228319492893431</v>
+        <v>-0.003709812582914976</v>
       </c>
       <c r="D46">
-        <v>-0.02404423201384823</v>
+        <v>-0.01392438458117978</v>
       </c>
       <c r="E46">
-        <v>0.04886420139883552</v>
+        <v>0.000874178102119846</v>
       </c>
       <c r="F46">
-        <v>-0.05617430616361355</v>
+        <v>0.01391153917107582</v>
       </c>
       <c r="G46">
-        <v>-0.06383432535362628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04791848112285475</v>
+      </c>
+      <c r="H46">
+        <v>0.01224104901824206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09754445192142404</v>
+        <v>-0.07556992505668815</v>
       </c>
       <c r="C47">
-        <v>-0.03277844386933458</v>
+        <v>0.03003612098147004</v>
       </c>
       <c r="D47">
-        <v>-0.007577594536430254</v>
+        <v>-0.04444856388075144</v>
       </c>
       <c r="E47">
-        <v>0.02347816732348895</v>
+        <v>0.0006200676405489313</v>
       </c>
       <c r="F47">
-        <v>-0.0190295876243881</v>
+        <v>0.02386741041932198</v>
       </c>
       <c r="G47">
-        <v>-0.08662507175465747</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007301848146678734</v>
+      </c>
+      <c r="H47">
+        <v>-0.02125691481956297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.018596581318442</v>
+        <v>-0.02281729045694161</v>
       </c>
       <c r="C48">
-        <v>-0.007829122860936469</v>
+        <v>0.006834835010014726</v>
       </c>
       <c r="D48">
-        <v>-0.01417038584475292</v>
+        <v>-0.007163965011410546</v>
       </c>
       <c r="E48">
-        <v>0.02859292354111737</v>
+        <v>0.001649901589444649</v>
       </c>
       <c r="F48">
-        <v>-0.04991515145490769</v>
+        <v>0.008332105998191487</v>
       </c>
       <c r="G48">
-        <v>-0.0252535210749533</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02557613638307867</v>
+      </c>
+      <c r="H48">
+        <v>0.01782122081205034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09173252330763604</v>
+        <v>-0.07357120220248745</v>
       </c>
       <c r="C50">
-        <v>-0.02908086284651537</v>
+        <v>0.02714121583537137</v>
       </c>
       <c r="D50">
-        <v>-0.01973162719750208</v>
+        <v>-0.04527727756017824</v>
       </c>
       <c r="E50">
-        <v>0.0340369049536523</v>
+        <v>0.01938873472338776</v>
       </c>
       <c r="F50">
-        <v>-0.05274665436566024</v>
+        <v>0.01850772953040973</v>
       </c>
       <c r="G50">
-        <v>-0.04040549161754865</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0162961792426554</v>
+      </c>
+      <c r="H50">
+        <v>-0.0005452703304257604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01670067478026163</v>
+        <v>-0.01888245801797439</v>
       </c>
       <c r="C51">
-        <v>0.01029506100497191</v>
+        <v>-0.001400244655440383</v>
       </c>
       <c r="D51">
-        <v>-0.01549114909976309</v>
+        <v>0.007723955966414294</v>
       </c>
       <c r="E51">
-        <v>-0.002406849394591302</v>
+        <v>-0.0007289217619366609</v>
       </c>
       <c r="F51">
-        <v>-0.1144087635193375</v>
+        <v>-0.01433162613495512</v>
       </c>
       <c r="G51">
-        <v>-0.05271090085467459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04765570442828575</v>
+      </c>
+      <c r="H51">
+        <v>0.04957453356866583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1059799689049362</v>
+        <v>-0.09361027889772401</v>
       </c>
       <c r="C53">
-        <v>-0.05042243575215546</v>
+        <v>0.03717955099967091</v>
       </c>
       <c r="D53">
-        <v>-0.01264268098589602</v>
+        <v>-0.07988359442288344</v>
       </c>
       <c r="E53">
-        <v>0.04101676929465965</v>
+        <v>0.008065248721653739</v>
       </c>
       <c r="F53">
-        <v>0.04814779971771572</v>
+        <v>0.05164090958319311</v>
       </c>
       <c r="G53">
-        <v>-0.02431773603596094</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04081484001018351</v>
+      </c>
+      <c r="H53">
+        <v>-0.04262720110172047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02158120624592948</v>
+        <v>-0.02597420445364664</v>
       </c>
       <c r="C54">
-        <v>-0.01366441658838225</v>
+        <v>0.01137002137459003</v>
       </c>
       <c r="D54">
-        <v>0.009082830216297643</v>
+        <v>0.01198541566757118</v>
       </c>
       <c r="E54">
-        <v>0.03685989606488141</v>
+        <v>0.007046432945783668</v>
       </c>
       <c r="F54">
-        <v>-0.04966609225866894</v>
+        <v>0.005321241267649596</v>
       </c>
       <c r="G54">
-        <v>-0.06635749112510245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0396677050947784</v>
+      </c>
+      <c r="H54">
+        <v>-0.002564774340826383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1047712819872675</v>
+        <v>-0.07742052203363715</v>
       </c>
       <c r="C55">
-        <v>-0.03054427169593642</v>
+        <v>0.03206010205426622</v>
       </c>
       <c r="D55">
-        <v>0.008984422568247162</v>
+        <v>-0.07689532142384169</v>
       </c>
       <c r="E55">
-        <v>0.06301024342715482</v>
+        <v>0.01520008504563372</v>
       </c>
       <c r="F55">
-        <v>0.03637937381257429</v>
+        <v>0.04159821020395876</v>
       </c>
       <c r="G55">
-        <v>-0.0743587897427534</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01829153496128826</v>
+      </c>
+      <c r="H55">
+        <v>-0.0514426867197964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1457059934583952</v>
+        <v>-0.1271337656082692</v>
       </c>
       <c r="C56">
-        <v>-0.09171473205034569</v>
+        <v>0.05657042787411822</v>
       </c>
       <c r="D56">
-        <v>0.0235683695321289</v>
+        <v>-0.1018929220725831</v>
       </c>
       <c r="E56">
-        <v>0.05409208882142084</v>
+        <v>0.01222765218958181</v>
       </c>
       <c r="F56">
-        <v>0.1030102597534154</v>
+        <v>0.08386784813453527</v>
       </c>
       <c r="G56">
-        <v>0.0319832757471076</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07411982144520365</v>
+      </c>
+      <c r="H56">
+        <v>-0.0496966719442006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04940581605489262</v>
+        <v>-0.0401400224990538</v>
       </c>
       <c r="C57">
-        <v>-0.0005067896353607354</v>
+        <v>-0.009708760989823392</v>
       </c>
       <c r="D57">
-        <v>-0.01304315548956909</v>
+        <v>-0.02782374683906381</v>
       </c>
       <c r="E57">
-        <v>-0.01363151336156737</v>
+        <v>-0.004268444601974911</v>
       </c>
       <c r="F57">
-        <v>-0.08379238179783753</v>
+        <v>0.01320302993830414</v>
       </c>
       <c r="G57">
-        <v>-0.05992507346551661</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05575233843554245</v>
+      </c>
+      <c r="H57">
+        <v>0.04170604923693331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2096660656291718</v>
+        <v>-0.148917529579488</v>
       </c>
       <c r="C58">
-        <v>-0.06578713780808358</v>
+        <v>0.04313446046692742</v>
       </c>
       <c r="D58">
-        <v>-0.1304087034700925</v>
+        <v>-0.1498846081620472</v>
       </c>
       <c r="E58">
-        <v>0.1260784271020142</v>
+        <v>-0.1688792458838806</v>
       </c>
       <c r="F58">
-        <v>-0.3357779909392412</v>
+        <v>-0.04354371761048912</v>
       </c>
       <c r="G58">
-        <v>-0.1187569625413285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8282814396519673</v>
+      </c>
+      <c r="H58">
+        <v>-0.3743730916247123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04441032640917708</v>
+        <v>-0.1560932721519791</v>
       </c>
       <c r="C59">
-        <v>0.00585372701668907</v>
+        <v>0.03717212832496091</v>
       </c>
       <c r="D59">
-        <v>0.0965741053037041</v>
+        <v>0.2235969369720817</v>
       </c>
       <c r="E59">
-        <v>-0.1387376286628336</v>
+        <v>-0.02682745203316305</v>
       </c>
       <c r="F59">
-        <v>-0.06577782594246892</v>
+        <v>-0.03059448935459413</v>
       </c>
       <c r="G59">
-        <v>0.02813041579708045</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005159797361296042</v>
+      </c>
+      <c r="H59">
+        <v>0.0166215551257628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1625359670204941</v>
+        <v>-0.1745234612412771</v>
       </c>
       <c r="C60">
-        <v>-0.03618164699623587</v>
+        <v>0.03625315559317124</v>
       </c>
       <c r="D60">
-        <v>-0.06898771556670329</v>
+        <v>-0.01778399183474398</v>
       </c>
       <c r="E60">
-        <v>-0.04779854499784805</v>
+        <v>-0.04746287347981563</v>
       </c>
       <c r="F60">
-        <v>-0.1724794945118759</v>
+        <v>0.03325089278480698</v>
       </c>
       <c r="G60">
-        <v>0.3036507143752709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04562311345552936</v>
+      </c>
+      <c r="H60">
+        <v>0.3948042417089714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02366237162238423</v>
+        <v>-0.02107234429860626</v>
       </c>
       <c r="C61">
-        <v>-0.007165701143010583</v>
+        <v>0.006187421688769373</v>
       </c>
       <c r="D61">
-        <v>-0.01351284198262088</v>
+        <v>-0.04168077126142337</v>
       </c>
       <c r="E61">
-        <v>0.02059051483621408</v>
+        <v>0.00526340386630007</v>
       </c>
       <c r="F61">
-        <v>-0.03716762511557591</v>
+        <v>0.01673445315721704</v>
       </c>
       <c r="G61">
-        <v>-0.01922458221128982</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02661335985515653</v>
+      </c>
+      <c r="H61">
+        <v>0.05043232208367879</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01704747052585251</v>
+        <v>-0.01256998953877006</v>
       </c>
       <c r="C63">
-        <v>-0.0136822861438159</v>
+        <v>-0.002304699287581832</v>
       </c>
       <c r="D63">
-        <v>-0.01469105835838468</v>
+        <v>-0.01462233421036402</v>
       </c>
       <c r="E63">
-        <v>0.04392779956483969</v>
+        <v>0.005398759654509405</v>
       </c>
       <c r="F63">
-        <v>-0.01483376410428416</v>
+        <v>0.01515409527283368</v>
       </c>
       <c r="G63">
-        <v>-0.04375906092165426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01645113656606155</v>
+      </c>
+      <c r="H63">
+        <v>0.003487228767964596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03438606195683304</v>
+        <v>-0.03941380101657257</v>
       </c>
       <c r="C64">
-        <v>-0.003781964072690766</v>
+        <v>0.009444879704466164</v>
       </c>
       <c r="D64">
-        <v>0.01181480153773177</v>
+        <v>-0.03942563032153924</v>
       </c>
       <c r="E64">
-        <v>0.05904597205733086</v>
+        <v>0.01144407086233222</v>
       </c>
       <c r="F64">
-        <v>-0.01729652786839773</v>
+        <v>0.004610409550419537</v>
       </c>
       <c r="G64">
-        <v>-0.06715898359258346</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.007801852299948632</v>
+      </c>
+      <c r="H64">
+        <v>0.03702206286522648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01672445282556806</v>
+        <v>-0.02844577833148447</v>
       </c>
       <c r="C65">
-        <v>-0.01061894748261353</v>
+        <v>-0.004793356721668284</v>
       </c>
       <c r="D65">
-        <v>-0.01841000349766422</v>
+        <v>-0.05969787182324154</v>
       </c>
       <c r="E65">
-        <v>0.02284169275508141</v>
+        <v>0.01055181559479955</v>
       </c>
       <c r="F65">
-        <v>-0.008047925689822388</v>
+        <v>0.03325537293418095</v>
       </c>
       <c r="G65">
-        <v>0.002609330383462719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.004325264052338014</v>
+      </c>
+      <c r="H65">
+        <v>0.06163640298265966</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04622118252819025</v>
+        <v>-0.02470475696753439</v>
       </c>
       <c r="C66">
-        <v>-0.03892108321007362</v>
+        <v>0.005515019587380579</v>
       </c>
       <c r="D66">
-        <v>-0.02739271074821878</v>
+        <v>-0.08757892459395204</v>
       </c>
       <c r="E66">
-        <v>0.03345686096175127</v>
+        <v>-0.002809714229412846</v>
       </c>
       <c r="F66">
-        <v>-0.0606555076786528</v>
+        <v>0.03738343221342541</v>
       </c>
       <c r="G66">
-        <v>-0.02273141804133534</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03766156551900721</v>
+      </c>
+      <c r="H66">
+        <v>0.07285471141925885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01261613518004262</v>
+        <v>-0.04323507334668141</v>
       </c>
       <c r="C67">
-        <v>0.009328556795104278</v>
+        <v>0.01938554336234952</v>
       </c>
       <c r="D67">
-        <v>-0.01030051451885603</v>
+        <v>0.0004730229323871754</v>
       </c>
       <c r="E67">
-        <v>-0.03758115648367156</v>
+        <v>-0.004751354329173793</v>
       </c>
       <c r="F67">
-        <v>-0.03160037979668657</v>
+        <v>0.01107784411282419</v>
       </c>
       <c r="G67">
-        <v>0.006016032117584814</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.002514678334388847</v>
+      </c>
+      <c r="H67">
+        <v>0.03977602409086915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05919711054372025</v>
+        <v>-0.1572477332143413</v>
       </c>
       <c r="C68">
-        <v>0.02236269177642733</v>
+        <v>0.01721316329837644</v>
       </c>
       <c r="D68">
-        <v>0.1316409835212495</v>
+        <v>0.2199029014472449</v>
       </c>
       <c r="E68">
-        <v>-0.1411472482136905</v>
+        <v>-0.02055722463323498</v>
       </c>
       <c r="F68">
-        <v>-0.04992218022201853</v>
+        <v>-0.04981192447761097</v>
       </c>
       <c r="G68">
-        <v>0.06342929265321151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01724314297040211</v>
+      </c>
+      <c r="H68">
+        <v>-0.03812855857718594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07206288538746329</v>
+        <v>-0.05883153516786761</v>
       </c>
       <c r="C69">
-        <v>-0.0361041534152139</v>
+        <v>0.02854458499086325</v>
       </c>
       <c r="D69">
-        <v>-0.004842310581766758</v>
+        <v>-0.03947985752073278</v>
       </c>
       <c r="E69">
-        <v>0.002681317103511692</v>
+        <v>-0.001291972809536984</v>
       </c>
       <c r="F69">
-        <v>-0.01711094311349405</v>
+        <v>0.03149915370340157</v>
       </c>
       <c r="G69">
-        <v>-0.08592791178953163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01389375737807906</v>
+      </c>
+      <c r="H69">
+        <v>0.00349660026528362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06743029329583577</v>
+        <v>-0.1463669691087837</v>
       </c>
       <c r="C71">
-        <v>0.04103430856138494</v>
+        <v>0.02411972437446703</v>
       </c>
       <c r="D71">
-        <v>0.1126786726991772</v>
+        <v>0.1969661711112313</v>
       </c>
       <c r="E71">
-        <v>-0.1972291235786802</v>
+        <v>-0.02653050987318725</v>
       </c>
       <c r="F71">
-        <v>-0.06377384325954749</v>
+        <v>-0.06027002379960542</v>
       </c>
       <c r="G71">
-        <v>0.01679715646592031</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01649202120715075</v>
+      </c>
+      <c r="H71">
+        <v>-0.03083660233588391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1164146047533162</v>
+        <v>-0.08193953718742289</v>
       </c>
       <c r="C72">
-        <v>-0.08689738668690179</v>
+        <v>0.03938448548781709</v>
       </c>
       <c r="D72">
-        <v>0.002080321562410249</v>
+        <v>-0.07631030076170035</v>
       </c>
       <c r="E72">
-        <v>0.02022651993273651</v>
+        <v>-0.008487043322904887</v>
       </c>
       <c r="F72">
-        <v>-0.1183658267546656</v>
+        <v>0.07945890017929509</v>
       </c>
       <c r="G72">
-        <v>0.07070497301679227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05987687842750818</v>
+      </c>
+      <c r="H72">
+        <v>0.1674144703851969</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2452936210782546</v>
+        <v>-0.2350581957706429</v>
       </c>
       <c r="C73">
-        <v>-0.03207321557000192</v>
+        <v>0.04557249012429328</v>
       </c>
       <c r="D73">
-        <v>-0.07376507666457595</v>
+        <v>-0.06302639678733959</v>
       </c>
       <c r="E73">
-        <v>-0.1467409056437284</v>
+        <v>-0.07928969214378372</v>
       </c>
       <c r="F73">
-        <v>-0.3005364759506422</v>
+        <v>0.02908066789276292</v>
       </c>
       <c r="G73">
-        <v>0.4425429999083161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.06475813310686321</v>
+      </c>
+      <c r="H73">
+        <v>0.5113084683849228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.142510524952444</v>
+        <v>-0.1185284317539507</v>
       </c>
       <c r="C74">
-        <v>-0.0456646762785809</v>
+        <v>0.05236486528393951</v>
       </c>
       <c r="D74">
-        <v>0.02021943461342396</v>
+        <v>-0.1016093893453308</v>
       </c>
       <c r="E74">
-        <v>0.03466869993363702</v>
+        <v>0.009844828245634247</v>
       </c>
       <c r="F74">
-        <v>0.07186513624071791</v>
+        <v>0.06286371754783462</v>
       </c>
       <c r="G74">
-        <v>0.02511957335494015</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05680305955516321</v>
+      </c>
+      <c r="H74">
+        <v>-0.03099291192975228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2330887320380298</v>
+        <v>-0.2284920437537805</v>
       </c>
       <c r="C75">
-        <v>-0.1533668885087273</v>
+        <v>0.1027562466563353</v>
       </c>
       <c r="D75">
-        <v>0.03038336632433353</v>
+        <v>-0.162844597707769</v>
       </c>
       <c r="E75">
-        <v>0.06178494481527641</v>
+        <v>-0.002845299082616063</v>
       </c>
       <c r="F75">
-        <v>0.1311105128686215</v>
+        <v>0.1503338370936423</v>
       </c>
       <c r="G75">
-        <v>-0.004040545794250955</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.124445838607997</v>
+      </c>
+      <c r="H75">
+        <v>-0.115576416474259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2843958603565013</v>
+        <v>-0.2026608735338081</v>
       </c>
       <c r="C76">
-        <v>-0.1443740829111944</v>
+        <v>0.09610659798101588</v>
       </c>
       <c r="D76">
-        <v>0.1038436204462633</v>
+        <v>-0.1572204939805985</v>
       </c>
       <c r="E76">
-        <v>0.07895966587756792</v>
+        <v>0.04828946190073905</v>
       </c>
       <c r="F76">
-        <v>0.1659742050589305</v>
+        <v>0.147392599574848</v>
       </c>
       <c r="G76">
-        <v>-0.006582111510784322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1207337027249188</v>
+      </c>
+      <c r="H76">
+        <v>-0.1219974229662421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1397295206835022</v>
+        <v>-0.06908771122315209</v>
       </c>
       <c r="C77">
-        <v>0.02868072412225273</v>
+        <v>0.007881435537491098</v>
       </c>
       <c r="D77">
-        <v>-0.08355312296514439</v>
+        <v>-0.06136750963959817</v>
       </c>
       <c r="E77">
-        <v>0.06610847107687981</v>
+        <v>-0.01606993720963997</v>
       </c>
       <c r="F77">
-        <v>-0.177411673833349</v>
+        <v>-0.03648677419143174</v>
       </c>
       <c r="G77">
-        <v>-0.1777610465634602</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1014971470530001</v>
+      </c>
+      <c r="H77">
+        <v>0.001823680239832478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06482946989469703</v>
+        <v>-0.03932950856260201</v>
       </c>
       <c r="C78">
-        <v>-0.02333562861657314</v>
+        <v>0.01011038780760166</v>
       </c>
       <c r="D78">
-        <v>-0.03133262958125802</v>
+        <v>-0.048434935405523</v>
       </c>
       <c r="E78">
-        <v>0.09124008885691492</v>
+        <v>0.008168109607298265</v>
       </c>
       <c r="F78">
-        <v>-0.06390380884898107</v>
+        <v>0.02020748143035939</v>
       </c>
       <c r="G78">
-        <v>-0.03299505060480719</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06019773815966138</v>
+      </c>
+      <c r="H78">
+        <v>0.06932513797813322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1299948789987166</v>
+        <v>-0.1383254151470404</v>
       </c>
       <c r="C80">
-        <v>0.5731992488909056</v>
+        <v>0.03671317495692955</v>
       </c>
       <c r="D80">
-        <v>0.5755154072696156</v>
+        <v>-0.03987354624086182</v>
       </c>
       <c r="E80">
-        <v>0.5248648735660795</v>
+        <v>0.9397652510696441</v>
       </c>
       <c r="F80">
-        <v>-0.07582563067863093</v>
+        <v>-0.2399777242776758</v>
       </c>
       <c r="G80">
-        <v>0.1129005282905304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.122533227643357</v>
+      </c>
+      <c r="H80">
+        <v>0.008660522790972137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1756329707769862</v>
+        <v>-0.1491881000546291</v>
       </c>
       <c r="C81">
-        <v>-0.1040893970967776</v>
+        <v>0.06619454500955882</v>
       </c>
       <c r="D81">
-        <v>0.05120857800518343</v>
+        <v>-0.1010063930139497</v>
       </c>
       <c r="E81">
-        <v>0.04222687583075224</v>
+        <v>0.01758223528193963</v>
       </c>
       <c r="F81">
-        <v>0.1309481177553929</v>
+        <v>0.09137199030276238</v>
       </c>
       <c r="G81">
-        <v>0.02879181387012017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08041105520312374</v>
+      </c>
+      <c r="H81">
+        <v>-0.078084155516772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04992703427393402</v>
+        <v>-0.03285112372897241</v>
       </c>
       <c r="C83">
-        <v>0.001930590303821112</v>
+        <v>0.00577184758431861</v>
       </c>
       <c r="D83">
-        <v>-0.03739780979492214</v>
+        <v>-0.02094926754706581</v>
       </c>
       <c r="E83">
-        <v>0.01343010428186424</v>
+        <v>-0.005269223103595078</v>
       </c>
       <c r="F83">
-        <v>-0.05635274511754594</v>
+        <v>0.001703129394338689</v>
       </c>
       <c r="G83">
-        <v>-0.04378672608049326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0425294764586599</v>
+      </c>
+      <c r="H83">
+        <v>0.04172753717839934</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2538951960960865</v>
+        <v>-0.2176986088821881</v>
       </c>
       <c r="C85">
-        <v>-0.1341750318765743</v>
+        <v>0.08615869714730516</v>
       </c>
       <c r="D85">
-        <v>0.051190893381308</v>
+        <v>-0.1618042931758698</v>
       </c>
       <c r="E85">
-        <v>0.0684932726474467</v>
+        <v>0.003895564029400925</v>
       </c>
       <c r="F85">
-        <v>0.130909813137843</v>
+        <v>0.135080195043572</v>
       </c>
       <c r="G85">
-        <v>-0.04591271411218161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1366883786089112</v>
+      </c>
+      <c r="H85">
+        <v>-0.08659762103052583</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004015161216928354</v>
+        <v>-0.02064665644573776</v>
       </c>
       <c r="C86">
-        <v>0.004198675448307121</v>
+        <v>-0.0008744032131615097</v>
       </c>
       <c r="D86">
-        <v>-0.02252376635044567</v>
+        <v>-0.005813735476564745</v>
       </c>
       <c r="E86">
-        <v>0.05461159069301751</v>
+        <v>-0.009211424134852521</v>
       </c>
       <c r="F86">
-        <v>-0.06181991709771999</v>
+        <v>-0.01975287155025886</v>
       </c>
       <c r="G86">
-        <v>-0.01468624956776312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06321098569415078</v>
+      </c>
+      <c r="H86">
+        <v>0.07568280174646404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03755261532598489</v>
+        <v>-0.02793775849107576</v>
       </c>
       <c r="C87">
-        <v>0.006297015255010925</v>
+        <v>0.002291948179545115</v>
       </c>
       <c r="D87">
-        <v>-0.00251710736330587</v>
+        <v>-0.03117213239299663</v>
       </c>
       <c r="E87">
-        <v>0.03919400870660676</v>
+        <v>0.008731539355525217</v>
       </c>
       <c r="F87">
-        <v>-0.1058194644315164</v>
+        <v>0.004798363872038746</v>
       </c>
       <c r="G87">
-        <v>-0.03877508154507527</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07652765715099814</v>
+      </c>
+      <c r="H87">
+        <v>0.07486674439565409</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01131248088920263</v>
+        <v>-0.03458781078429111</v>
       </c>
       <c r="C88">
-        <v>-0.003597544587871471</v>
+        <v>-0.01199273694307991</v>
       </c>
       <c r="D88">
-        <v>0.01882521957758181</v>
+        <v>-0.006620322290296242</v>
       </c>
       <c r="E88">
-        <v>-0.002736612951538591</v>
+        <v>0.009090075583157119</v>
       </c>
       <c r="F88">
-        <v>-0.007135527405569881</v>
+        <v>0.008881701588176496</v>
       </c>
       <c r="G88">
-        <v>-0.0548575412999658</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0008491911790390028</v>
+      </c>
+      <c r="H88">
+        <v>0.01387377869264318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0846541208702067</v>
+        <v>-0.2493629221350162</v>
       </c>
       <c r="C89">
-        <v>0.05408081638551081</v>
+        <v>0.03848982622621228</v>
       </c>
       <c r="D89">
-        <v>0.1602303334655063</v>
+        <v>0.3507732024717103</v>
       </c>
       <c r="E89">
-        <v>-0.2611117849699185</v>
+        <v>-0.04359253454687884</v>
       </c>
       <c r="F89">
-        <v>-0.1187395414320161</v>
+        <v>-0.06470312420096511</v>
       </c>
       <c r="G89">
-        <v>-0.01671787581782973</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02963758184281134</v>
+      </c>
+      <c r="H89">
+        <v>-0.01320817417366343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07357316140031317</v>
+        <v>-0.1997952357906111</v>
       </c>
       <c r="C90">
-        <v>0.08004519462179108</v>
+        <v>0.03121434293968759</v>
       </c>
       <c r="D90">
-        <v>0.2094286473583874</v>
+        <v>0.3059841398978288</v>
       </c>
       <c r="E90">
-        <v>-0.2610252024942292</v>
+        <v>-0.03287175226720294</v>
       </c>
       <c r="F90">
-        <v>-0.07186201290640376</v>
+        <v>-0.07861723296804032</v>
       </c>
       <c r="G90">
-        <v>-0.01281049183535809</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03645191800589988</v>
+      </c>
+      <c r="H90">
+        <v>-0.06842182672787596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3159164071281407</v>
+        <v>-0.2351812237051219</v>
       </c>
       <c r="C91">
-        <v>-0.1494713158749425</v>
+        <v>0.1036660707631278</v>
       </c>
       <c r="D91">
-        <v>0.04713157315629516</v>
+        <v>-0.1535213487780716</v>
       </c>
       <c r="E91">
-        <v>0.04318707230208933</v>
+        <v>0.002596810670078999</v>
       </c>
       <c r="F91">
-        <v>0.2387824650449815</v>
+        <v>0.143383038192026</v>
       </c>
       <c r="G91">
-        <v>0.03306873266209041</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1470165316221862</v>
+      </c>
+      <c r="H91">
+        <v>-0.1628379518500454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1684986276152927</v>
+        <v>-0.2466343532545363</v>
       </c>
       <c r="C92">
-        <v>0.02850618389695532</v>
+        <v>0.09423289645637731</v>
       </c>
       <c r="D92">
-        <v>0.3039670590102628</v>
+        <v>0.2356307276043125</v>
       </c>
       <c r="E92">
-        <v>-0.3678196837996212</v>
+        <v>-0.01813146981428427</v>
       </c>
       <c r="F92">
-        <v>0.04635204028675422</v>
+        <v>-0.03098114613529089</v>
       </c>
       <c r="G92">
-        <v>-0.5353159504910801</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.004546470685509806</v>
+      </c>
+      <c r="H92">
+        <v>-0.1497956488954661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07496949770588002</v>
+        <v>-0.2236194784313958</v>
       </c>
       <c r="C93">
-        <v>0.08819822901121606</v>
+        <v>0.04293704409722932</v>
       </c>
       <c r="D93">
-        <v>0.2370981711804761</v>
+        <v>0.3301358016178537</v>
       </c>
       <c r="E93">
-        <v>-0.3867206944982727</v>
+        <v>-0.05797358504320521</v>
       </c>
       <c r="F93">
-        <v>-0.04047475899560642</v>
+        <v>-0.08992163994960996</v>
       </c>
       <c r="G93">
-        <v>0.06208488654300009</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03308696355308149</v>
+      </c>
+      <c r="H93">
+        <v>-0.0185066903980709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3050539804328837</v>
+        <v>-0.2585226118380315</v>
       </c>
       <c r="C94">
-        <v>-0.2158387737378523</v>
+        <v>0.0944323336435826</v>
       </c>
       <c r="D94">
-        <v>0.09393260623712292</v>
+        <v>-0.1508028064587562</v>
       </c>
       <c r="E94">
-        <v>0.04974686616274923</v>
+        <v>-0.006610464598214205</v>
       </c>
       <c r="F94">
-        <v>0.2029855484087566</v>
+        <v>0.1911685866536947</v>
       </c>
       <c r="G94">
-        <v>0.08207440675560035</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1360790498882467</v>
+      </c>
+      <c r="H94">
+        <v>-0.1818510223340218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06852094930206587</v>
+        <v>-0.05277147888927622</v>
       </c>
       <c r="C95">
-        <v>-0.02968455130544862</v>
+        <v>0.02847619750010196</v>
       </c>
       <c r="D95">
-        <v>-0.09423078249875931</v>
+        <v>-0.08652172252167732</v>
       </c>
       <c r="E95">
-        <v>0.06668242775454998</v>
+        <v>-0.07954203269938125</v>
       </c>
       <c r="F95">
-        <v>-0.00342858193250242</v>
+        <v>0.006232728311199299</v>
       </c>
       <c r="G95">
-        <v>-0.15800670420504</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03413005656011141</v>
+      </c>
+      <c r="H95">
+        <v>0.04448325616140602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.182730161327195</v>
+        <v>-0.1813712474689856</v>
       </c>
       <c r="C98">
-        <v>0.01195722041183655</v>
+        <v>0.06797990186081691</v>
       </c>
       <c r="D98">
-        <v>-0.03529844072153372</v>
+        <v>-0.03618967622275963</v>
       </c>
       <c r="E98">
-        <v>-0.09427793993034214</v>
+        <v>-0.04514006164591104</v>
       </c>
       <c r="F98">
-        <v>-0.1641506339180431</v>
+        <v>-0.0008494545943874762</v>
       </c>
       <c r="G98">
-        <v>0.350740729945002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08036724659821057</v>
+      </c>
+      <c r="H98">
+        <v>0.3774548881634619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00825624938673078</v>
+        <v>-0.01565213282521388</v>
       </c>
       <c r="C101">
-        <v>-0.0267349633096529</v>
+        <v>-0.000405886790494474</v>
       </c>
       <c r="D101">
-        <v>-0.02004929386507334</v>
+        <v>-0.00651669323387413</v>
       </c>
       <c r="E101">
-        <v>0.103075394468569</v>
+        <v>0.005312768066681564</v>
       </c>
       <c r="F101">
-        <v>-0.1463335078512516</v>
+        <v>0.01695846703072023</v>
       </c>
       <c r="G101">
-        <v>-0.1744999291847864</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1087269951330607</v>
+      </c>
+      <c r="H101">
+        <v>-0.03141117849161581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1095572841569544</v>
+        <v>-0.1049272139442824</v>
       </c>
       <c r="C102">
-        <v>-0.06844693284678399</v>
+        <v>0.03425916956946385</v>
       </c>
       <c r="D102">
-        <v>0.001581795412747219</v>
+        <v>-0.07996292368309624</v>
       </c>
       <c r="E102">
-        <v>0.04890275702946426</v>
+        <v>0.005048661675440271</v>
       </c>
       <c r="F102">
-        <v>0.1182038227832533</v>
+        <v>0.06895693921833251</v>
       </c>
       <c r="G102">
-        <v>-0.004152023047039415</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07702911578759393</v>
+      </c>
+      <c r="H102">
+        <v>-0.06838957541065403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02899605654558611</v>
+        <v>-0.01958845771368894</v>
       </c>
       <c r="C103">
-        <v>-0.01585927813319464</v>
+        <v>0.007446611999733412</v>
       </c>
       <c r="D103">
-        <v>0.004223585079485458</v>
+        <v>-0.01720218201841999</v>
       </c>
       <c r="E103">
-        <v>0.0135459451929573</v>
+        <v>0.0113239900146794</v>
       </c>
       <c r="F103">
-        <v>0.008876095960493307</v>
+        <v>0.01405064629636274</v>
       </c>
       <c r="G103">
-        <v>-0.03323993536504325</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0006948359823752956</v>
+      </c>
+      <c r="H103">
+        <v>-0.007497513884480984</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2659920991408122</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9468443654674622</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.01372627786389172</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03450156892658023</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1456118488244996</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.011516298652431</v>
+      </c>
+      <c r="H104">
+        <v>-0.03812816496387766</v>
       </c>
     </row>
   </sheetData>
